--- a/Omega/Testdata/TestData.xlsx
+++ b/Omega/Testdata/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>srno</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Commerce</t>
+  </si>
+  <si>
+    <t>Student</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
